--- a/Account_Invest_Income_Task_TxnMaster_Demo_211025.xlsx
+++ b/Account_Invest_Income_Task_TxnMaster_Demo_211025.xlsx
@@ -9,41 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
-    <sheet name="Ac_Master_List" sheetId="24" r:id="rId1"/>
-    <sheet name="Temp" sheetId="25" r:id="rId2"/>
-    <sheet name="Ac_Holder" sheetId="1" r:id="rId3"/>
-    <sheet name="Category_Income" sheetId="2" r:id="rId4"/>
-    <sheet name="Category_Equity" sheetId="3" r:id="rId5"/>
-    <sheet name="Category_Expanse" sheetId="4" r:id="rId6"/>
-    <sheet name="Ac_Tag_Income" sheetId="5" r:id="rId7"/>
-    <sheet name="Ac_Tag_Expance" sheetId="6" r:id="rId8"/>
-    <sheet name="Ac_Tag_Equity" sheetId="15" r:id="rId9"/>
-    <sheet name="Payment_Mode" sheetId="7" r:id="rId10"/>
-    <sheet name="Txn_Tag" sheetId="8" r:id="rId11"/>
-    <sheet name="Ac_Status" sheetId="9" r:id="rId12"/>
-    <sheet name="Txn_Status" sheetId="14" r:id="rId13"/>
-    <sheet name="Frequency" sheetId="10" r:id="rId14"/>
-    <sheet name="Ac_Type" sheetId="16" r:id="rId15"/>
-    <sheet name="Txn_Income" sheetId="11" r:id="rId16"/>
-    <sheet name="Txn_Investment" sheetId="12" r:id="rId17"/>
-    <sheet name="Txn_Expance" sheetId="13" r:id="rId18"/>
-    <sheet name="Category_Task" sheetId="17" r:id="rId19"/>
-    <sheet name="Task_Tag" sheetId="18" r:id="rId20"/>
-    <sheet name="Task_Status" sheetId="19" r:id="rId21"/>
-    <sheet name="Task_Assignee" sheetId="20" r:id="rId22"/>
-    <sheet name="Task_Priority" sheetId="21" r:id="rId23"/>
-    <sheet name="Task_Adhoc" sheetId="22" r:id="rId24"/>
-    <sheet name="Task_Data" sheetId="23" r:id="rId25"/>
+    <sheet name="Ac_Holder" sheetId="1" r:id="rId1"/>
+    <sheet name="Category_Income" sheetId="2" r:id="rId2"/>
+    <sheet name="Category_Equity" sheetId="3" r:id="rId3"/>
+    <sheet name="Category_Expanse" sheetId="4" r:id="rId4"/>
+    <sheet name="Ac_Tag_Income" sheetId="5" r:id="rId5"/>
+    <sheet name="Ac_Tag_Expance" sheetId="6" r:id="rId6"/>
+    <sheet name="Ac_Tag_Equity" sheetId="15" r:id="rId7"/>
+    <sheet name="Payment_Mode" sheetId="7" r:id="rId8"/>
+    <sheet name="Txn_Tag" sheetId="8" r:id="rId9"/>
+    <sheet name="Ac_Status" sheetId="9" r:id="rId10"/>
+    <sheet name="Txn_Status" sheetId="14" r:id="rId11"/>
+    <sheet name="Frequency" sheetId="10" r:id="rId12"/>
+    <sheet name="Ac_Type" sheetId="16" r:id="rId13"/>
+    <sheet name="Txn_Income" sheetId="11" r:id="rId14"/>
+    <sheet name="Txn_Investment" sheetId="12" r:id="rId15"/>
+    <sheet name="Txn_Expance" sheetId="13" r:id="rId16"/>
+    <sheet name="Category_Task" sheetId="17" r:id="rId17"/>
+    <sheet name="Task_Tag" sheetId="18" r:id="rId18"/>
+    <sheet name="Task_Status" sheetId="19" r:id="rId19"/>
+    <sheet name="Task_Assignee" sheetId="20" r:id="rId20"/>
+    <sheet name="Task_Priority" sheetId="21" r:id="rId21"/>
+    <sheet name="Task_Adhoc" sheetId="22" r:id="rId22"/>
+    <sheet name="Txn_Task" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Txn_Expance!$A$1:$M$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Txn_Income!$A$1:$K$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Txn_Investment!$A$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Txn_Expance!$A$1:$M$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Txn_Income!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Txn_Investment!$A$1:$M$40</definedName>
     <definedName name="Ac_Holder_List">Ac_Holder!$A$2:$A$12</definedName>
-    <definedName name="Ac_Status_List" localSheetId="12">Txn_Status!$A$2:$A$21</definedName>
+    <definedName name="Ac_Status_List" localSheetId="10">Txn_Status!$A$2:$A$21</definedName>
     <definedName name="Ac_Status_List">Ac_Status_Table[Ac_Status]</definedName>
     <definedName name="Ac_Tag_Expance_List">Ac_Tag_Expance!$A$2:$A$116</definedName>
     <definedName name="Ac_Tag_Income_List">Ac_Tag_Income!$A$2:$A$88</definedName>
@@ -61,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="1263">
   <si>
     <t>Ac_Holder</t>
   </si>
@@ -3303,12 +3301,6 @@
     <t>Task_Assignee</t>
   </si>
   <si>
-    <t>Nana Papa</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
     <t>Task_Priority</t>
   </si>
   <si>
@@ -3357,9 +3349,6 @@
     <t>Adhoc-10</t>
   </si>
   <si>
-    <t>Task-Description</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -3369,12 +3358,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Due-Date</t>
-  </si>
-  <si>
-    <t>Completed-On</t>
-  </si>
-  <si>
     <t>Task_100_001</t>
   </si>
   <si>
@@ -3858,271 +3841,13 @@
     <t>Task_Tag</t>
   </si>
   <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Aadhar</t>
-  </si>
-  <si>
-    <t>OCI</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>Electricity_208AMA</t>
-  </si>
-  <si>
-    <t>Electricity_208MA</t>
-  </si>
-  <si>
-    <t>Electricity_15SM</t>
-  </si>
-  <si>
-    <t>DL_Canada</t>
-  </si>
-  <si>
-    <t>DL_India</t>
-  </si>
-  <si>
-    <t>Water_208MA</t>
-  </si>
-  <si>
-    <t>Water_208AMA</t>
-  </si>
-  <si>
-    <t>Water_15SM</t>
-  </si>
-  <si>
-    <t>Internet_15SM</t>
-  </si>
-  <si>
-    <t>Internet_208AMA</t>
-  </si>
-  <si>
-    <t>HotWaterTank_208AMA</t>
-  </si>
-  <si>
-    <t>HotWaterTank_208MA</t>
-  </si>
-  <si>
-    <t>Health_Cards</t>
-  </si>
-  <si>
-    <t>Landing_Record</t>
-  </si>
-  <si>
-    <t>Education_Amit</t>
-  </si>
-  <si>
-    <t>Education_Rashmi</t>
-  </si>
-  <si>
-    <t>Education_Om</t>
-  </si>
-  <si>
-    <t>Education_Aashna</t>
-  </si>
-  <si>
-    <t>Resume_Om</t>
-  </si>
-  <si>
-    <t>Resume_Amit</t>
-  </si>
-  <si>
-    <t>Resume_Rashmi</t>
-  </si>
-  <si>
-    <t>Insurance_Life</t>
-  </si>
-  <si>
-    <t>Insurance_Mediclaim</t>
-  </si>
-  <si>
-    <t>Insurance_Car</t>
-  </si>
-  <si>
-    <t>Insurance_Home</t>
-  </si>
-  <si>
-    <t>Insurance_Tenant</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Social_Media</t>
-  </si>
-  <si>
-    <t>Loan_Student</t>
-  </si>
-  <si>
-    <t>Loan_Mortgage</t>
-  </si>
-  <si>
-    <t>Phone_Canada</t>
-  </si>
-  <si>
-    <t>Phone_India</t>
-  </si>
-  <si>
-    <t>RK_Internet</t>
-  </si>
-  <si>
-    <t>RK_Water</t>
-  </si>
-  <si>
-    <t>RK_Electricity</t>
-  </si>
-  <si>
-    <t>RK_HouseTax</t>
-  </si>
-  <si>
-    <t>HouseTax_Canada</t>
-  </si>
-  <si>
-    <t>RK_Aayusman</t>
-  </si>
-  <si>
-    <t>RK_RailwayID</t>
-  </si>
-  <si>
-    <t>RK_Father_Docs</t>
-  </si>
-  <si>
-    <t>RK_PPO</t>
-  </si>
-  <si>
-    <t>RK_MotherWill</t>
-  </si>
-  <si>
-    <t>RK_PoA</t>
-  </si>
-  <si>
-    <t>RK_Railway_UMID</t>
-  </si>
-  <si>
-    <t>RK_Contacts</t>
-  </si>
-  <si>
-    <t>RK_RationCard</t>
-  </si>
-  <si>
-    <t>RK_VoterID</t>
-  </si>
-  <si>
-    <t>RK_IndaneGas</t>
-  </si>
-  <si>
-    <t>RK_MotherHistory</t>
-  </si>
-  <si>
-    <t>RK_Medicins</t>
-  </si>
-  <si>
-    <t>RK_RajViarPlot</t>
-  </si>
-  <si>
-    <t>RK_DhanderaPlot</t>
-  </si>
-  <si>
-    <t>RK_73ANDocs</t>
-  </si>
-  <si>
-    <t>Ac_Master_List</t>
-  </si>
-  <si>
-    <t>ExpiredDocs_Canada</t>
-  </si>
-  <si>
-    <t>ExpiredDocs_India</t>
-  </si>
-  <si>
-    <t>Birth_Certificates</t>
-  </si>
-  <si>
-    <t>Business_Registration</t>
-  </si>
-  <si>
-    <t>Personal Docs</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Mother Docs</t>
-  </si>
-  <si>
-    <t>Rookree Related</t>
-  </si>
-  <si>
-    <t>SIN/SSN</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Mediclaim</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>PropertyTax_15SM</t>
-  </si>
-  <si>
-    <t>PropertyTax_208MA</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Mortgage</t>
-  </si>
-  <si>
-    <t>Pesonal Loan</t>
-  </si>
-  <si>
-    <t>Student Loan</t>
-  </si>
-  <si>
-    <t>Resume</t>
-  </si>
-  <si>
-    <t>Expired Docs</t>
-  </si>
-  <si>
-    <t>Email &amp; Social Media</t>
-  </si>
-  <si>
-    <t>Business Docs</t>
-  </si>
-  <si>
-    <t>RK_PAN</t>
-  </si>
-  <si>
-    <t>RK_Aadhar</t>
-  </si>
-  <si>
-    <t>RK_Passport</t>
-  </si>
-  <si>
-    <t>Father Docs</t>
+    <t>Task_Description</t>
+  </si>
+  <si>
+    <t>Completed_On</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -4713,419 +4438,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>1324</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1266</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1327</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1274</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1275</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1288</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1285</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1287</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1273</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:A64">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>964</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5136,60 +4517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>976</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -5294,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
@@ -5458,7 +4786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -5539,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5561,7 +4889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -8982,7 +8310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -10340,7 +9668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M201"/>
@@ -18054,7 +17382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -18245,366 +17573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="D1" s="13" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="F18" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E22" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E23" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E24" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>1302</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F35" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F36" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F37" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E38" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E39" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E40" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E41" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E42" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E56" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E57" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E58" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E59" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D61" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E62" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E63" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D66" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D71" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D74" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D77" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -18616,7 +17585,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -18644,11 +17613,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18672,2545 +17643,33 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1076</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>1078</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A7">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G3" t="s">
-        <v>751</v>
-      </c>
-      <c r="H3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G27" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G29" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G38" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G39" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G44" t="s">
-        <v>321</v>
-      </c>
-      <c r="H44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G56" t="s">
-        <v>805</v>
-      </c>
-      <c r="H56" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G57" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G58" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G62" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G69" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G73" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G74" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G78" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G83" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H84" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G85" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G87" t="s">
-        <v>760</v>
-      </c>
-      <c r="H87" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G88" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G89" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G93" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F94" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H99" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G101" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -21291,7 +17750,2453 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G27" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G39" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G44" t="s">
+        <v>321</v>
+      </c>
+      <c r="H44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G56" t="s">
+        <v>805</v>
+      </c>
+      <c r="H56" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G57" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G58" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G62" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G73" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G74" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G78" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G83" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H84" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G85" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G87" t="s">
+        <v>760</v>
+      </c>
+      <c r="H87" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G88" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G93" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H99" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -21384,7 +20289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
@@ -21600,7 +20505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A88"/>
   <sheetViews>
@@ -22061,7 +20966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A116"/>
   <sheetViews>
@@ -22662,7 +21567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -22682,35 +21587,171 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>964</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>